--- a/doc/report_characters.xlsx
+++ b/doc/report_characters.xlsx
@@ -173,7 +173,7 @@
     <font>
       <b val="true"/>
       <sz val="20"/>
-      <color rgb="FF666666"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -187,13 +187,13 @@
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FF666666"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF666666"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -417,7 +417,7 @@
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFDB4437"/>
-      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF999999"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
@@ -432,7 +432,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -446,7 +446,7 @@
             <a:pPr>
               <a:defRPr b="1" sz="2000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
@@ -454,11 +454,11 @@
             <a:r>
               <a:rPr b="1" sz="2000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Precisão dos modelos</a:t>
+              <a:t>Precisão</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -467,8 +467,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0244147865692194"/>
-          <c:y val="0.0308698934653133"/>
+          <c:x val="0.0245246040574183"/>
+          <c:y val="0.0308776640375902"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -794,11 +794,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="59295205"/>
-        <c:axId val="8425470"/>
+        <c:axId val="7911426"/>
+        <c:axId val="44242530"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59295205"/>
+        <c:axId val="7911426"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,21 +822,21 @@
             <a:pPr>
               <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="8425470"/>
+        <c:crossAx val="44242530"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="8425470"/>
+        <c:axId val="44242530"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -870,14 +870,14 @@
             <a:pPr>
               <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59295205"/>
+        <c:crossAx val="7911426"/>
         <c:crossesAt val="1"/>
         <c:majorUnit val="0.25"/>
       </c:valAx>
@@ -904,7 +904,7 @@
           <a:pPr>
             <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="666666"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -920,15 +920,13 @@
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
-      <a:solidFill>
-        <a:srgbClr val="666666"/>
-      </a:solidFill>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -942,7 +940,7 @@
             <a:pPr>
               <a:defRPr b="1" sz="2000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
@@ -950,11 +948,11 @@
             <a:r>
               <a:rPr b="1" sz="2000" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Tempo de execução dos modelos</a:t>
+              <a:t>Tempo de execução</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -963,8 +961,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0244147865692194"/>
-          <c:y val="0.0308698934653133"/>
+          <c:x val="0.0244186662429154"/>
+          <c:y val="0.0308776640375902"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1051,7 +1049,7 @@
                   <a:pPr>
                     <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                       <a:solidFill>
-                        <a:srgbClr val="666666"/>
+                        <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
@@ -1074,7 +1072,7 @@
                   <a:pPr>
                     <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                       <a:solidFill>
-                        <a:srgbClr val="666666"/>
+                        <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
@@ -1097,7 +1095,7 @@
                   <a:pPr>
                     <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                       <a:solidFill>
-                        <a:srgbClr val="666666"/>
+                        <a:srgbClr val="000000"/>
                       </a:solidFill>
                       <a:latin typeface="Arial"/>
                     </a:defRPr>
@@ -1118,7 +1116,7 @@
                 <a:pPr>
                   <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                     <a:solidFill>
-                      <a:srgbClr val="666666"/>
+                      <a:srgbClr val="000000"/>
                     </a:solidFill>
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
@@ -1189,11 +1187,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="100"/>
-        <c:axId val="80433201"/>
-        <c:axId val="81380296"/>
+        <c:axId val="50990206"/>
+        <c:axId val="86915784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80433201"/>
+        <c:axId val="50990206"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,24 +1215,24 @@
             <a:pPr>
               <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81380296"/>
+        <c:crossAx val="86915784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81380296"/>
+        <c:axId val="86915784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="450"/>
+          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1247,7 +1245,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1265,16 +1263,16 @@
             <a:pPr>
               <a:defRPr b="1" sz="1200" spc="-1" strike="noStrike">
                 <a:solidFill>
-                  <a:srgbClr val="666666"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80433201"/>
+        <c:crossAx val="50990206"/>
         <c:crossesAt val="1"/>
-        <c:majorUnit val="150"/>
+        <c:majorUnit val="100"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1299,7 +1297,7 @@
           <a:pPr>
             <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
               <a:solidFill>
-                <a:srgbClr val="666666"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Arial"/>
             </a:defRPr>
@@ -1315,9 +1313,7 @@
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
     <a:ln>
-      <a:solidFill>
-        <a:srgbClr val="666666"/>
-      </a:solidFill>
+      <a:noFill/>
     </a:ln>
   </c:spPr>
 </c:chartSpace>
@@ -1334,9 +1330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>762840</xdr:colOff>
+      <xdr:colOff>761760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1345,7 +1341,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8176680" y="0"/>
-        <a:ext cx="6797160" cy="4291200"/>
+        <a:ext cx="6796080" cy="4290120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1364,9 +1360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>762120</xdr:colOff>
+      <xdr:colOff>761040</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>205200</xdr:rowOff>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1375,7 +1371,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="8175960" y="4349160"/>
-        <a:ext cx="6797160" cy="4291200"/>
+        <a:ext cx="6796080" cy="4290120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
